--- a/test/human/result/cos_similarity_rr.xlsx
+++ b/test/human/result/cos_similarity_rr.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Features\Documents\PMB-UNDIKSHA\va-pmb-undiksha\test\human\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4BCEB5-E3E7-4CFA-A514-4098958B1256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +112,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,6 +198,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,9 +233,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,14 +409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,32 +432,704 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9077035154146087</v>
+        <v>0.71831101491732086</v>
       </c>
       <c r="C2">
-        <v>0.9999978017339205</v>
+        <v>0.57395121376414759</v>
       </c>
       <c r="D2">
-        <v>0.8452157570097888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.99259286399530189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2504120354830509</v>
+        <v>0.6340385890092699</v>
       </c>
       <c r="C3">
-        <v>0.9999990434461267</v>
+        <v>0.98221489014848062</v>
       </c>
       <c r="D3">
-        <v>0.6702701241475553</v>
+        <v>0.81318380261582068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.85239646118902157</v>
+      </c>
+      <c r="C4">
+        <v>0.67711247506006267</v>
+      </c>
+      <c r="D4">
+        <v>0.97592511403041871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.83909561864858062</v>
+      </c>
+      <c r="C5">
+        <v>0.78455398775758178</v>
+      </c>
+      <c r="D5">
+        <v>0.9701083099850567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.80730674802742919</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.84665490751292549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.95751801957410598</v>
+      </c>
+      <c r="C7">
+        <v>0.63899458159745859</v>
+      </c>
+      <c r="D7">
+        <v>0.66104445047054139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.80235835678389067</v>
+      </c>
+      <c r="C8">
+        <v>0.98662642028050451</v>
+      </c>
+      <c r="D8">
+        <v>0.87103653480446208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.70492986829673887</v>
+      </c>
+      <c r="C9">
+        <v>0.74092930961996006</v>
+      </c>
+      <c r="D9">
+        <v>0.97473386390654693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.99999865335974392</v>
+      </c>
+      <c r="C10">
+        <v>0.97205187705583351</v>
+      </c>
+      <c r="D10">
+        <v>0.8477434970008958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.91677694745222271</v>
+      </c>
+      <c r="C11">
+        <v>0.91147775022880162</v>
+      </c>
+      <c r="D11">
+        <v>0.97744330532293322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.99999894714986659</v>
+      </c>
+      <c r="C12">
+        <v>0.814604623592868</v>
+      </c>
+      <c r="D12">
+        <v>0.86177843375214425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.70915444558903495</v>
+      </c>
+      <c r="C13">
+        <v>0.81693980976707925</v>
+      </c>
+      <c r="D13">
+        <v>0.99999860150169417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.73465914274376787</v>
+      </c>
+      <c r="C14">
+        <v>0.79013610728675732</v>
+      </c>
+      <c r="D14">
+        <v>0.68512225461973975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.91968023667619558</v>
+      </c>
+      <c r="C15">
+        <v>0.74377791545759486</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.80206499390473862</v>
+      </c>
+      <c r="C16">
+        <v>0.86781613394152313</v>
+      </c>
+      <c r="D16">
+        <v>0.75223533446893998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.81466543237126066</v>
+      </c>
+      <c r="C17">
+        <v>0.96353700566584699</v>
+      </c>
+      <c r="D17">
+        <v>0.98511999381038717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.68778009311369537</v>
+      </c>
+      <c r="C18">
+        <v>0.99999906671709426</v>
+      </c>
+      <c r="D18">
+        <v>0.83943038076445631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.95128867872625278</v>
+      </c>
+      <c r="C19">
+        <v>0.95969793392085967</v>
+      </c>
+      <c r="D19">
+        <v>0.81484788414221709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.99999878555452226</v>
+      </c>
+      <c r="C20">
+        <v>0.96895050497178148</v>
+      </c>
+      <c r="D20">
+        <v>0.98286408686098536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.95217180126746492</v>
+      </c>
+      <c r="C21">
+        <v>0.81914610242761399</v>
+      </c>
+      <c r="D21">
+        <v>0.94637635490989092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.95955518803330386</v>
+      </c>
+      <c r="C22">
+        <v>0.88978460640114898</v>
+      </c>
+      <c r="D22">
+        <v>0.87234807595170916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.97034120086047149</v>
+      </c>
+      <c r="C23">
+        <v>0.83858906036836567</v>
+      </c>
+      <c r="D23">
+        <v>0.83346202268591263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.98542628311114666</v>
+      </c>
+      <c r="C24">
+        <v>0.78842603148624557</v>
+      </c>
+      <c r="D24">
+        <v>0.93809424774372996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.95908974761021237</v>
+      </c>
+      <c r="C25">
+        <v>0.84223752912389305</v>
+      </c>
+      <c r="D25">
+        <v>0.93702085136168989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.88405122987654938</v>
+      </c>
+      <c r="C26">
+        <v>0.88663300839723813</v>
+      </c>
+      <c r="D26">
+        <v>0.92154529121895912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.85781370772764065</v>
+      </c>
+      <c r="C27">
+        <v>0.95982878898857715</v>
+      </c>
+      <c r="D27">
+        <v>0.75532643868539118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.78456914454982929</v>
+      </c>
+      <c r="C28">
+        <v>0.66501356164842729</v>
+      </c>
+      <c r="D28">
+        <v>0.97547226004943743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.91649039524868114</v>
+      </c>
+      <c r="C29">
+        <v>0.91964609785813023</v>
+      </c>
+      <c r="D29">
+        <v>0.73674206309274737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.84575630741845753</v>
+      </c>
+      <c r="C30">
+        <v>0.66993204839370368</v>
+      </c>
+      <c r="D30">
+        <v>0.87856665978226467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.66510560574588196</v>
+      </c>
+      <c r="C31">
+        <v>0.97497485074271706</v>
+      </c>
+      <c r="D31">
+        <v>0.65486295297094688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.86973210784034238</v>
+      </c>
+      <c r="C32">
+        <v>0.98101976241736644</v>
+      </c>
+      <c r="D32">
+        <v>0.94615459111656519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.77456111648330228</v>
+      </c>
+      <c r="C33">
+        <v>0.88507532236005415</v>
+      </c>
+      <c r="D33">
+        <v>0.85254522920003484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.84347750795950716</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.75900514735752123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.99999904476278201</v>
+      </c>
+      <c r="C35">
+        <v>0.88475391438539364</v>
+      </c>
+      <c r="D35">
+        <v>0.88317727717427763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.93560893830652081</v>
+      </c>
+      <c r="C36">
+        <v>0.9020573611359618</v>
+      </c>
+      <c r="D36">
+        <v>0.99999906597946031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0.84782102008685634</v>
+      </c>
+      <c r="D37">
+        <v>0.89302678024758231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.93232763100449978</v>
+      </c>
+      <c r="C38">
+        <v>0.97789626005626384</v>
+      </c>
+      <c r="D38">
+        <v>0.90102664463049986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.84738418350469835</v>
+      </c>
+      <c r="C39">
+        <v>0.99014608638922041</v>
+      </c>
+      <c r="D39">
+        <v>0.90001562247850631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.81304856453298602</v>
+      </c>
+      <c r="C40">
+        <v>0.98987711145210378</v>
+      </c>
+      <c r="D40">
+        <v>0.95661167999107344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.87660142369597349</v>
+      </c>
+      <c r="D41">
+        <v>0.83604400193260631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.88018924567650703</v>
+      </c>
+      <c r="C42">
+        <v>0.85035886037065889</v>
+      </c>
+      <c r="D42">
+        <v>0.79591931795592907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.74649701138278635</v>
+      </c>
+      <c r="C43">
+        <v>0.72420650675294918</v>
+      </c>
+      <c r="D43">
+        <v>0.70140239285092598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.99999882846985977</v>
+      </c>
+      <c r="C44">
+        <v>0.6206546840265279</v>
+      </c>
+      <c r="D44">
+        <v>0.65259188610240804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.72708997018892363</v>
+      </c>
+      <c r="C45">
+        <v>0.85730713689993121</v>
+      </c>
+      <c r="D45">
+        <v>0.99999897630410117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.6801043957204197</v>
+      </c>
+      <c r="C46">
+        <v>0.70305858091521545</v>
+      </c>
+      <c r="D46">
+        <v>0.93774996628448071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.99999882693737174</v>
+      </c>
+      <c r="C47">
+        <v>0.95135262994235947</v>
+      </c>
+      <c r="D47">
+        <v>0.91865919494702064</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.86947361956584068</v>
+      </c>
+      <c r="C48">
+        <v>0.96090498062395624</v>
+      </c>
+      <c r="D48">
+        <v>0.81817813758246216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.8243063373435856</v>
+      </c>
+      <c r="C49">
+        <v>0.763940003192774</v>
+      </c>
+      <c r="D49">
+        <v>0.77364783301889106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.99999925707396842</v>
+      </c>
+      <c r="C50">
+        <v>0.99343289137214108</v>
+      </c>
+      <c r="D50">
+        <v>0.9934168034582046</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.3560510391217504</v>
+      </c>
+      <c r="C51">
+        <v>0.83358117706137336</v>
+      </c>
+      <c r="D51">
+        <v>0.24831459695925009</v>
       </c>
     </row>
   </sheetData>

--- a/test/human/result/cos_similarity_rr.xlsx
+++ b/test/human/result/cos_similarity_rr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Features\Documents\PMB-UNDIKSHA\va-pmb-undiksha\test\human\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE523F73-66A0-49BB-B787-DDC6097BA3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54FB367-0EA9-4BE2-9C82-FBDFF86BC5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,16 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="14.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.71851097526223429</v>
+        <v>0.71863784061355684</v>
       </c>
       <c r="C2" s="2">
-        <v>0.57400950636733272</v>
+        <v>0.57391261858257792</v>
       </c>
       <c r="D2" s="2">
-        <v>0.99259456131663648</v>
+        <v>0.99257895071409796</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.63398969710269693</v>
+        <v>0.63388850616985226</v>
       </c>
       <c r="C3" s="2">
-        <v>0.98225009655464013</v>
+        <v>0.98222316514719432</v>
       </c>
       <c r="D3" s="2">
-        <v>0.81323665916515109</v>
+        <v>0.81312324737404018</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.85263439567443</v>
+        <v>0.85265819514290009</v>
       </c>
       <c r="C4" s="2">
-        <v>0.67934954361236399</v>
+        <v>0.67692835187430178</v>
       </c>
       <c r="D4" s="2">
-        <v>0.97867629004299117</v>
+        <v>0.97594704494944196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.83679804265726865</v>
+        <v>0.83908751611818944</v>
       </c>
       <c r="C5" s="2">
-        <v>0.78558497392701299</v>
+        <v>0.7842503890523923</v>
       </c>
       <c r="D5" s="2">
-        <v>0.97081778216779702</v>
+        <v>0.97012458390471368</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.80743659739000839</v>
+        <v>0.80759181699616889</v>
       </c>
       <c r="C6" s="2">
-        <v>0.99999872724177241</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.84669630445282174</v>
+        <v>0.84690250182064586</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,13 +517,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.95746545948414052</v>
+        <v>0.95679993412534114</v>
       </c>
       <c r="C7" s="2">
-        <v>0.63899285125630156</v>
+        <v>0.63820647679934361</v>
       </c>
       <c r="D7" s="2">
-        <v>0.66116007961474155</v>
+        <v>0.66005565679951894</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0.80288984253684315</v>
+        <v>0.80180036669069865</v>
       </c>
       <c r="C8" s="2">
-        <v>0.98650429819918339</v>
+        <v>0.98657221451013921</v>
       </c>
       <c r="D8" s="2">
-        <v>0.87101185171055751</v>
+        <v>0.87161556948077357</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.70499335675751873</v>
+        <v>0.70507111539311473</v>
       </c>
       <c r="C9" s="2">
-        <v>0.74097428963356093</v>
+        <v>0.74098453852588619</v>
       </c>
       <c r="D9" s="2">
-        <v>0.9746483471305819</v>
+        <v>0.97474208323902112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,13 +559,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.99999884088833302</v>
+        <v>0.99999868063006858</v>
       </c>
       <c r="C10" s="2">
-        <v>0.97207992813888155</v>
+        <v>0.97203066351213552</v>
       </c>
       <c r="D10" s="2">
-        <v>0.84786157977474808</v>
+        <v>0.84775617049270635</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -573,13 +573,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.91685376598194201</v>
+        <v>0.91681112377427376</v>
       </c>
       <c r="C11" s="2">
-        <v>0.91146521955325421</v>
+        <v>0.91105317439450295</v>
       </c>
       <c r="D11" s="2">
-        <v>0.97743584655551841</v>
+        <v>0.97747549234113962</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,13 +587,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.99999916495249463</v>
+        <v>0.91951203871346665</v>
       </c>
       <c r="C12" s="2">
-        <v>0.81456933031344625</v>
+        <v>0.74376824364288874</v>
       </c>
       <c r="D12" s="2">
-        <v>0.86182004375428245</v>
+        <v>0.99999908286431016</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,13 +601,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>0.70889882841642027</v>
+        <v>0.88384442467033564</v>
       </c>
       <c r="C13" s="2">
-        <v>0.81679710638981995</v>
+        <v>0.88646629454938008</v>
       </c>
       <c r="D13" s="2">
-        <v>0.999998753773371</v>
+        <v>0.92157838993894803</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,13 +615,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.73455558948689359</v>
+        <v>0.66469443341301115</v>
       </c>
       <c r="C14" s="2">
-        <v>0.79012014400078334</v>
+        <v>0.97497875645418697</v>
       </c>
       <c r="D14" s="2">
-        <v>0.68504634427974564</v>
+        <v>0.65517740391141399</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,13 +629,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>0.91940527532188354</v>
+        <v>0.86969111566595714</v>
       </c>
       <c r="C15" s="2">
-        <v>0.74374201013075392</v>
+        <v>0.98105094045105479</v>
       </c>
       <c r="D15" s="2">
-        <v>0.99999933354481896</v>
+        <v>0.94611697512705939</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,13 +643,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0.80210401758350769</v>
+        <v>0.84366039819849492</v>
       </c>
       <c r="C16" s="2">
-        <v>0.86789705690993957</v>
+        <v>0.9999990442932194</v>
       </c>
       <c r="D16" s="2">
-        <v>0.75194966905732308</v>
+        <v>0.75894382780893255</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,13 +657,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0.81459532841910676</v>
+        <v>0.99999910781491586</v>
       </c>
       <c r="C17" s="2">
-        <v>0.96359529368819141</v>
+        <v>0.88739126970701288</v>
       </c>
       <c r="D17" s="2">
-        <v>0.98508925451134755</v>
+        <v>0.88312316365971522</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,13 +671,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0.68778765013690857</v>
+        <v>0.93564647905741005</v>
       </c>
       <c r="C18" s="2">
+        <v>0.90209484743098645</v>
+      </c>
+      <c r="D18" s="2">
         <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.83935975738224944</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,13 +685,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0.95119631223481382</v>
+        <v>0.99999908678709559</v>
       </c>
       <c r="C19" s="2">
-        <v>0.95969803208392712</v>
+        <v>0.84773545836858799</v>
       </c>
       <c r="D19" s="2">
-        <v>0.81487363646416644</v>
+        <v>0.89302359627191064</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,13 +699,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.99999879815464598</v>
+        <v>0.93232993625611338</v>
       </c>
       <c r="C20" s="2">
-        <v>0.96894380154297011</v>
+        <v>0.97787619619617772</v>
       </c>
       <c r="D20" s="2">
-        <v>0.98284456119727803</v>
+        <v>0.90103685434839742</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,13 +713,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>0.95235811537844794</v>
+        <v>0.84748010942805629</v>
       </c>
       <c r="C21" s="2">
-        <v>0.81900866839372355</v>
+        <v>0.99005616585936729</v>
       </c>
       <c r="D21" s="2">
-        <v>0.94635868336290629</v>
+        <v>0.89999648737023286</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,13 +727,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>0.95899259792947289</v>
+        <v>0.81315886299249795</v>
       </c>
       <c r="C22" s="2">
-        <v>0.88896052744723941</v>
+        <v>0.98984704469301499</v>
       </c>
       <c r="D22" s="2">
-        <v>0.869152533344145</v>
+        <v>0.95670509813718463</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,13 +741,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>0.97037868093137847</v>
+        <v>0.7464879782802416</v>
       </c>
       <c r="C23" s="2">
-        <v>0.83853449535206503</v>
+        <v>0.72397787927997548</v>
       </c>
       <c r="D23" s="2">
-        <v>0.83353814309796359</v>
+        <v>0.70152191784474438</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,13 +755,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>0.98541505648305294</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="C24" s="2">
-        <v>0.7883865281671999</v>
+        <v>0.61429050700020571</v>
       </c>
       <c r="D24" s="2">
-        <v>0.93816578372357884</v>
+        <v>0.65251031352461397</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,13 +769,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>0.95909082456105632</v>
+        <v>0.72720318866597433</v>
       </c>
       <c r="C25" s="2">
-        <v>0.84223654566915118</v>
+        <v>0.85721793308367489</v>
       </c>
       <c r="D25" s="2">
-        <v>0.93701079547470167</v>
+        <v>0.99999895418005169</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,363 +783,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>0.88403011190425518</v>
+        <v>0.67755881799199746</v>
       </c>
       <c r="C26" s="2">
-        <v>0.88652011910706408</v>
+        <v>0.70296417127798638</v>
       </c>
       <c r="D26" s="2">
-        <v>0.92166614884135301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.85780739795084104</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.95983836263500533</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.75529000760310905</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.7845826652918888</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.66509526248292561</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.97544721183929084</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.91648742633561253</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.91964609785813023</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.73677996486350894</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.84599509388948912</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.67013920362622648</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.87851167311059131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.66491587043603206</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.9749838905250533</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.65500305486725474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.86970084039646911</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.98103010719962414</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.94614188609617189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.77462902245551502</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.88495247459588366</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.85254555289867917</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.84349518702682236</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.99999905551293955</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.75900877958117385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.99999926840383169</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.88742912767885429</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.88309406612074937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.93561394505218931</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.90207953861965084</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.99999908303187324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.999999143528572</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.84780938193530198</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.89299291595459485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.932264779013386</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.97792013715417281</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.90105186894542921</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.84653118452727727</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.99001139578688335</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.89985423319977575</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.81319408153592232</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.99235910176147413</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.95664915465655964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.99999899983453544</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.87665743069688673</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.83615250120814411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.88035622762430632</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.8502868521535073</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.79590247782467005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.74657379015409642</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.72416558825096189</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.69987205084048454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.62059982059192875</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.65245297110805123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.72719602964948771</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.85721459525195143</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.99999901834401395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.67706695668706773</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.70299784588680536</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.93785812544872293</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.99995130242305097</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.95140876111475103</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.9184090894366459</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0.86950002028341766</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.96093965710782059</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.81825916600842885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.82506620289957844</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.76738985489679434</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.77871216182217384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.99344415372452799</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.99342618517590675</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.35614397789394242</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.83361448543986238</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.24823743264056891</v>
+        <v>0.93692927602033016</v>
       </c>
     </row>
   </sheetData>
